--- a/Phân công và tiến độ công việc/TienDoCongViec.xlsx
+++ b/Phân công và tiến độ công việc/TienDoCongViec.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DELL\Desktop\DACN_HeThongDatVe\Phân công và tiến độ công việc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D86A391-C8D4-4887-BE6D-421AC546E1C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2B847C-E28F-4ECC-9175-155ABAC8A8EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{DE3126FE-7E61-4B77-B627-0259BC3103D7}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="91">
   <si>
     <t>Mục tiêu</t>
   </si>
@@ -259,9 +259,6 @@
   </si>
   <si>
     <t>_Code xử lý các chức năng quản lí thông tin nhân viên và khách hàng</t>
-  </si>
-  <si>
-    <t>Nguyễn Thái Đức</t>
   </si>
   <si>
     <t>Code giao diện và xử lý chức năng đổi mật khẩu</t>
@@ -512,31 +509,70 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -550,45 +586,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -906,8 +903,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B75F0CD7-5EDA-477E-B926-683C951ED0FC}">
   <dimension ref="A1:F57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="B31" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -922,20 +919,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
-      <c r="B1" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
+      <c r="B1" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
@@ -959,17 +956,17 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D4" s="13" t="s">
         <v>78</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>79</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>8</v>
@@ -979,11 +976,11 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A5" s="30"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="35"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="21"/>
       <c r="D5" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E5" s="8" t="s">
         <v>11</v>
@@ -993,11 +990,11 @@
       </c>
     </row>
     <row r="6" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="30"/>
-      <c r="B6" s="19"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="32"/>
+      <c r="C6" s="21"/>
       <c r="D6" s="7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="8" t="s">
         <v>12</v>
@@ -1007,11 +1004,11 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A7" s="30"/>
-      <c r="B7" s="19"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="32"/>
+      <c r="C7" s="21"/>
       <c r="D7" s="7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E7" s="8" t="s">
         <v>9</v>
@@ -1021,11 +1018,11 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A8" s="30"/>
-      <c r="B8" s="19"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="21"/>
       <c r="D8" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E8" s="8" t="s">
         <v>10</v>
@@ -1035,11 +1032,11 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A9" s="30"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="40"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="30"/>
       <c r="D9" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="8" t="s">
         <v>15</v>
@@ -1049,12 +1046,12 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="30"/>
-      <c r="B10" s="21" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>85</v>
+      <c r="C10" s="24" t="s">
+        <v>84</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>14</v>
@@ -1067,9 +1064,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A11" s="30"/>
-      <c r="B11" s="22"/>
-      <c r="C11" s="37"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="6" t="s">
         <v>25</v>
       </c>
@@ -1081,9 +1078,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A12" s="30"/>
-      <c r="B12" s="22"/>
-      <c r="C12" s="37"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="3" t="s">
         <v>24</v>
       </c>
@@ -1095,9 +1092,9 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="30"/>
-      <c r="B13" s="22"/>
-      <c r="C13" s="37"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="3" t="s">
         <v>23</v>
       </c>
@@ -1109,9 +1106,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A14" s="30"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="37"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="3" t="s">
         <v>26</v>
       </c>
@@ -1123,11 +1120,11 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A15" s="30"/>
-      <c r="B15" s="22"/>
-      <c r="C15" s="37"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>10</v>
@@ -1137,12 +1134,12 @@
       </c>
     </row>
     <row r="16" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A16" s="30"/>
-      <c r="B16" s="16" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="34" t="s">
-        <v>88</v>
+      <c r="C16" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>27</v>
@@ -1155,9 +1152,9 @@
       </c>
     </row>
     <row r="17" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A17" s="30"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="35"/>
+      <c r="A17" s="16"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="21"/>
       <c r="D17" s="7" t="s">
         <v>18</v>
       </c>
@@ -1169,9 +1166,9 @@
       </c>
     </row>
     <row r="18" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="30"/>
-      <c r="B18" s="17"/>
-      <c r="C18" s="35"/>
+      <c r="A18" s="16"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="21"/>
       <c r="D18" s="7" t="s">
         <v>21</v>
       </c>
@@ -1183,9 +1180,9 @@
       </c>
     </row>
     <row r="19" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="30"/>
-      <c r="B19" s="17"/>
-      <c r="C19" s="35"/>
+      <c r="A19" s="16"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="21"/>
       <c r="D19" s="7" t="s">
         <v>22</v>
       </c>
@@ -1197,9 +1194,9 @@
       </c>
     </row>
     <row r="20" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="30"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="35"/>
+      <c r="A20" s="16"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="21"/>
       <c r="D20" s="7" t="s">
         <v>19</v>
       </c>
@@ -1211,9 +1208,9 @@
       </c>
     </row>
     <row r="21" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="30"/>
-      <c r="B21" s="17"/>
-      <c r="C21" s="35"/>
+      <c r="A21" s="16"/>
+      <c r="B21" s="23"/>
+      <c r="C21" s="21"/>
       <c r="D21" s="7" t="s">
         <v>54</v>
       </c>
@@ -1225,11 +1222,11 @@
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="30"/>
-      <c r="B22" s="21" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="36" t="s">
+      <c r="C22" s="24" t="s">
         <v>29</v>
       </c>
       <c r="D22" s="3" t="s">
@@ -1243,9 +1240,9 @@
       </c>
     </row>
     <row r="23" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="30"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="37"/>
+      <c r="A23" s="16"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="3" t="s">
         <v>56</v>
       </c>
@@ -1257,9 +1254,9 @@
       </c>
     </row>
     <row r="24" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="30"/>
-      <c r="B24" s="22"/>
-      <c r="C24" s="37"/>
+      <c r="A24" s="16"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="3" t="s">
         <v>28</v>
       </c>
@@ -1271,9 +1268,9 @@
       </c>
     </row>
     <row r="25" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="30"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="37"/>
+      <c r="A25" s="16"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="3" t="s">
         <v>20</v>
       </c>
@@ -1285,9 +1282,9 @@
       </c>
     </row>
     <row r="26" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="31"/>
-      <c r="B26" s="39"/>
-      <c r="C26" s="38"/>
+      <c r="A26" s="17"/>
+      <c r="B26" s="29"/>
+      <c r="C26" s="26"/>
       <c r="D26" s="5" t="s">
         <v>36</v>
       </c>
@@ -1299,13 +1296,13 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="35" t="s">
         <v>72</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="31" t="s">
         <v>44</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -1319,9 +1316,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="20"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="32"/>
       <c r="D28" s="7" t="s">
         <v>31</v>
       </c>
@@ -1333,9 +1330,9 @@
       </c>
     </row>
     <row r="29" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="20"/>
-      <c r="B29" s="17"/>
-      <c r="C29" s="19"/>
+      <c r="A29" s="35"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="32"/>
       <c r="D29" s="7" t="s">
         <v>32</v>
       </c>
@@ -1347,9 +1344,9 @@
       </c>
     </row>
     <row r="30" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="20"/>
-      <c r="B30" s="27"/>
-      <c r="C30" s="28"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="33"/>
       <c r="D30" s="10" t="s">
         <v>33</v>
       </c>
@@ -1361,11 +1358,11 @@
       </c>
     </row>
     <row r="31" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="20"/>
-      <c r="B31" s="21" t="s">
+      <c r="A31" s="35"/>
+      <c r="B31" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="23" t="s">
+      <c r="C31" s="36" t="s">
         <v>38</v>
       </c>
       <c r="D31" s="3" t="s">
@@ -1379,9 +1376,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="20"/>
-      <c r="B32" s="22"/>
-      <c r="C32" s="24"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="3" t="s">
         <v>58</v>
       </c>
@@ -1393,9 +1390,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="20"/>
-      <c r="B33" s="22"/>
-      <c r="C33" s="24"/>
+      <c r="A33" s="35"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="3" t="s">
         <v>57</v>
       </c>
@@ -1407,9 +1404,9 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="22"/>
-      <c r="C34" s="24"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="37"/>
       <c r="D34" s="3" t="s">
         <v>59</v>
       </c>
@@ -1421,9 +1418,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="20"/>
-      <c r="B35" s="22"/>
-      <c r="C35" s="24"/>
+      <c r="A35" s="35"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="37"/>
       <c r="D35" s="3" t="s">
         <v>43</v>
       </c>
@@ -1435,9 +1432,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="20"/>
-      <c r="B36" s="22"/>
-      <c r="C36" s="24"/>
+      <c r="A36" s="35"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="37"/>
       <c r="D36" s="3" t="s">
         <v>45</v>
       </c>
@@ -1449,11 +1446,11 @@
       </c>
     </row>
     <row r="37" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="16" t="s">
+      <c r="A37" s="35"/>
+      <c r="B37" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="C37" s="18" t="s">
+      <c r="C37" s="31" t="s">
         <v>73</v>
       </c>
       <c r="D37" s="10" t="s">
@@ -1467,9 +1464,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="19"/>
+      <c r="A38" s="35"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="10" t="s">
         <v>61</v>
       </c>
@@ -1481,9 +1478,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="20"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="19"/>
+      <c r="A39" s="35"/>
+      <c r="B39" s="23"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="7" t="s">
         <v>42</v>
       </c>
@@ -1495,9 +1492,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="19"/>
+      <c r="A40" s="35"/>
+      <c r="B40" s="23"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="7" t="s">
         <v>46</v>
       </c>
@@ -1509,9 +1506,9 @@
       </c>
     </row>
     <row r="41" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="20"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="19"/>
+      <c r="A41" s="35"/>
+      <c r="B41" s="23"/>
+      <c r="C41" s="32"/>
       <c r="D41" s="7" t="s">
         <v>48</v>
       </c>
@@ -1523,11 +1520,11 @@
       </c>
     </row>
     <row r="42" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="20"/>
-      <c r="B42" s="25" t="s">
+      <c r="A42" s="35"/>
+      <c r="B42" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="39" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="3" t="s">
@@ -1541,9 +1538,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="20"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
+      <c r="A43" s="35"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="39"/>
       <c r="D43" s="3" t="s">
         <v>66</v>
       </c>
@@ -1555,23 +1552,23 @@
       </c>
     </row>
     <row r="44" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="20"/>
-      <c r="B44" s="25"/>
-      <c r="C44" s="26"/>
+      <c r="A44" s="35"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="39"/>
       <c r="D44" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="F44" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="20"/>
-      <c r="B45" s="25"/>
-      <c r="C45" s="26"/>
+      <c r="A45" s="35"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="39"/>
       <c r="D45" s="3" t="s">
         <v>41</v>
       </c>
@@ -1583,9 +1580,9 @@
       </c>
     </row>
     <row r="46" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="20"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="26"/>
+      <c r="A46" s="35"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="39"/>
       <c r="D46" s="3" t="s">
         <v>51</v>
       </c>
@@ -1597,13 +1594,13 @@
       </c>
     </row>
     <row r="47" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="15" t="s">
+      <c r="A47" s="34" t="s">
         <v>68</v>
       </c>
-      <c r="B47" s="16" t="s">
+      <c r="B47" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C47" s="18" t="s">
+      <c r="C47" s="31" t="s">
         <v>71</v>
       </c>
       <c r="D47" s="10" t="s">
@@ -1617,9 +1614,9 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="15"/>
-      <c r="B48" s="17"/>
-      <c r="C48" s="19"/>
+      <c r="A48" s="34"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="32"/>
       <c r="D48" s="10" t="s">
         <v>64</v>
       </c>
@@ -1631,9 +1628,9 @@
       </c>
     </row>
     <row r="49" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="15"/>
-      <c r="B49" s="17"/>
-      <c r="C49" s="19"/>
+      <c r="A49" s="34"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="32"/>
       <c r="D49" s="7" t="s">
         <v>40</v>
       </c>
@@ -1645,9 +1642,9 @@
       </c>
     </row>
     <row r="50" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="15"/>
-      <c r="B50" s="17"/>
-      <c r="C50" s="19"/>
+      <c r="A50" s="34"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="32"/>
       <c r="D50" s="7" t="s">
         <v>62</v>
       </c>
@@ -1659,9 +1656,9 @@
       </c>
     </row>
     <row r="51" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="15"/>
-      <c r="B51" s="17"/>
-      <c r="C51" s="19"/>
+      <c r="A51" s="34"/>
+      <c r="B51" s="23"/>
+      <c r="C51" s="32"/>
       <c r="D51" s="7" t="s">
         <v>67</v>
       </c>
@@ -1673,11 +1670,11 @@
       </c>
     </row>
     <row r="52" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="15"/>
-      <c r="B52" s="17"/>
-      <c r="C52" s="19"/>
+      <c r="A52" s="34"/>
+      <c r="B52" s="23"/>
+      <c r="C52" s="32"/>
       <c r="D52" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E52" s="9" t="s">
         <v>15</v>
@@ -1687,9 +1684,9 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="15"/>
-      <c r="B53" s="17"/>
-      <c r="C53" s="19"/>
+      <c r="A53" s="34"/>
+      <c r="B53" s="23"/>
+      <c r="C53" s="32"/>
       <c r="D53" s="7" t="s">
         <v>69</v>
       </c>
@@ -1701,25 +1698,25 @@
       </c>
     </row>
     <row r="54" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="15"/>
-      <c r="B54" s="17"/>
-      <c r="C54" s="19"/>
+      <c r="A54" s="34"/>
+      <c r="B54" s="23"/>
+      <c r="C54" s="32"/>
       <c r="D54" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E54" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A55" s="34"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="32"/>
+      <c r="D55" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="15"/>
-      <c r="B55" s="17"/>
-      <c r="C55" s="19"/>
-      <c r="D55" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="E55" s="8" t="s">
         <v>9</v>
@@ -1727,25 +1724,25 @@
       <c r="F55" s="12"/>
     </row>
     <row r="56" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="15"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="19"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="32"/>
       <c r="D56" s="7" t="s">
         <v>51</v>
       </c>
       <c r="E56" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F56" s="12" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="15"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="19"/>
+      <c r="A57" s="34"/>
+      <c r="B57" s="23"/>
+      <c r="C57" s="32"/>
       <c r="D57" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E57" s="9" t="s">
         <v>8</v>
@@ -1756,16 +1753,6 @@
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="A4:A26"/>
-    <mergeCell ref="B1:E2"/>
-    <mergeCell ref="C16:C21"/>
-    <mergeCell ref="B16:B21"/>
-    <mergeCell ref="C22:C26"/>
-    <mergeCell ref="B22:B26"/>
-    <mergeCell ref="C4:C9"/>
-    <mergeCell ref="B4:B9"/>
-    <mergeCell ref="C10:C15"/>
-    <mergeCell ref="B10:B15"/>
     <mergeCell ref="A47:A57"/>
     <mergeCell ref="B47:B57"/>
     <mergeCell ref="C47:C57"/>
@@ -1778,6 +1765,16 @@
     <mergeCell ref="C42:C46"/>
     <mergeCell ref="B27:B30"/>
     <mergeCell ref="C27:C30"/>
+    <mergeCell ref="A4:A26"/>
+    <mergeCell ref="B1:E2"/>
+    <mergeCell ref="C16:C21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="C22:C26"/>
+    <mergeCell ref="B22:B26"/>
+    <mergeCell ref="C4:C9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="C10:C15"/>
+    <mergeCell ref="B10:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
